--- a/Test Report.xlsx
+++ b/Test Report.xlsx
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="243">
+    <row r="2" spans="1:21" ht="102.75">
       <c r="A2">
         <v>1</v>
       </c>
